--- a/daughter/CAM/CAMOutputs v2.1/CAMOutputs/Assembly/CSv2.1_exp_board_formatted.xlsx
+++ b/daughter/CAM/CAMOutputs v2.1/CAMOutputs/Assembly/CSv2.1_exp_board_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work-reese/hardware/commonsense/cs-hardware/daughter/CAM/CAMOutputs v2.1/CAMOutputs/Assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{608CBD10-A1F3-CD44-B8E3-BE19C8476BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117083F9-1597-7F4B-981F-C1FE1F72D43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2240" windowWidth="28040" windowHeight="17440" xr2:uid="{48A25EFE-EDFD-AE42-831F-E459C4FDE38D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CSv2.1_exp_board" localSheetId="0">Sheet1!$A$1:$N$57</definedName>
+    <definedName name="CSv2.1_exp_board" localSheetId="0">Sheet1!$A$1:$M$57</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{FA3B001D-4A59-F844-9FD2-08CF67BB85F4}" name="CSv2.1_exp_board" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/work-reese/hardware/commonsense/cs-hardware/daughter/CAM/CAMOutputs v2.1/CAMOutputs/Assembly/CSv2.1_exp_board.csv" tab="0" semicolon="1">
+    <textPr sourceFile="/Users/work-reese/hardware/commonsense/cs-hardware/daughter/CAM/CAMOutputs v2.1/CAMOutputs/Assembly/CSv2.1_exp_board.csv" tab="0" semicolon="1">
       <textFields count="52">
         <textField/>
         <textField/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="274">
   <si>
     <t>Qty</t>
   </si>
@@ -137,9 +137,6 @@
     <t>MP</t>
   </si>
   <si>
-    <t>MPN</t>
-  </si>
-  <si>
     <t>PARTNO</t>
   </si>
   <si>
@@ -818,9 +815,6 @@
     <t>HopeRF</t>
   </si>
   <si>
-    <t>RFM95CW</t>
-  </si>
-  <si>
     <t>RFM95W</t>
   </si>
   <si>
@@ -924,6 +918,9 @@
   </si>
   <si>
     <t>X3, X5, X6</t>
+  </si>
+  <si>
+    <t>SGTL5000</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8A8BB-0E6B-0C4D-BF7B-D7CB18348DCB}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,10 +1295,10 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1341,1554 +1338,1434 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="M10" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>50</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="M11" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>58</v>
       </c>
-      <c r="M12" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="N12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
         <v>62</v>
       </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>71</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
         <v>72</v>
       </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>73</v>
       </c>
-      <c r="N15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>74</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
         <v>75</v>
       </c>
-      <c r="I16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="s">
         <v>82</v>
       </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
       <c r="J19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
       <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
         <v>89</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
         <v>90</v>
       </c>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
       <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
         <v>93</v>
       </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" t="s">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="N21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>95</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
         <v>96</v>
       </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
         <v>97</v>
       </c>
-      <c r="M22" t="s">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="N22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="M23" t="s">
-        <v>102</v>
-      </c>
-      <c r="N23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>103</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E25" t="s">
         <v>107</v>
       </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>108</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" t="s">
         <v>109</v>
       </c>
-      <c r="J25" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>110</v>
       </c>
-      <c r="N25" t="s">
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C27" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="E27" t="s">
         <v>117</v>
       </c>
-      <c r="N26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
         <v>119</v>
       </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>120</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
         <v>121</v>
       </c>
-      <c r="I28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" t="s">
-        <v>134</v>
-      </c>
-      <c r="N31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>135</v>
       </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>136</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
         <v>137</v>
       </c>
-      <c r="I32" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" t="s">
-        <v>138</v>
-      </c>
-      <c r="N32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>140</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
         <v>141</v>
       </c>
-      <c r="J33" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" t="s">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="N33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>144</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>145</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>146</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
         <v>147</v>
       </c>
-      <c r="M34" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>148</v>
       </c>
-      <c r="N34" t="s">
+      <c r="C35" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>149</v>
       </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>150</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>151</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>152</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>153</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>154</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>155</v>
       </c>
-      <c r="M35" t="s">
+      <c r="C36" t="s">
         <v>155</v>
       </c>
-      <c r="N35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>156</v>
       </c>
-      <c r="C36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>157</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>158</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" t="s">
         <v>159</v>
       </c>
-      <c r="I36" t="s">
-        <v>82</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>160</v>
       </c>
-      <c r="M36" t="s">
-        <v>160</v>
-      </c>
-      <c r="N36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>161</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>162</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>163</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>164</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>165</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>166</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
         <v>167</v>
       </c>
-      <c r="M37" t="s">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>168</v>
       </c>
-      <c r="N37" t="s">
+      <c r="C38" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>169</v>
       </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>170</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>171</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" t="s">
         <v>172</v>
       </c>
-      <c r="I38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J38" t="s">
-        <v>167</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>173</v>
       </c>
-      <c r="M38" t="s">
+      <c r="C39" t="s">
         <v>173</v>
       </c>
-      <c r="N38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>174</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" t="s">
+        <v>185</v>
+      </c>
+      <c r="L40" t="s">
+        <v>179</v>
+      </c>
+      <c r="M40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
         <v>174</v>
       </c>
-      <c r="D39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" t="s">
         <v>176</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J41" t="s">
         <v>177</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M41" t="s">
         <v>178</v>
       </c>
-      <c r="M39" t="s">
-        <v>179</v>
-      </c>
-      <c r="N39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" t="s">
-        <v>184</v>
-      </c>
-      <c r="I40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J40" t="s">
-        <v>186</v>
-      </c>
-      <c r="L40" t="s">
-        <v>180</v>
-      </c>
-      <c r="M40" t="s">
-        <v>180</v>
-      </c>
-      <c r="N40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>188</v>
       </c>
-      <c r="G41" t="s">
-        <v>177</v>
-      </c>
-      <c r="J41" t="s">
-        <v>178</v>
-      </c>
-      <c r="M41" t="s">
-        <v>179</v>
-      </c>
-      <c r="N41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
         <v>189</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" t="s">
         <v>189</v>
       </c>
-      <c r="D42" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
         <v>192</v>
       </c>
-      <c r="C43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>193</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>194</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>195</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
         <v>196</v>
       </c>
-      <c r="M43" t="s">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>197</v>
       </c>
-      <c r="N43" t="s">
+      <c r="C44" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>198</v>
       </c>
-      <c r="C44" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>199</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>200</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>201</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
         <v>202</v>
       </c>
-      <c r="M44" t="s">
-        <v>203</v>
-      </c>
-      <c r="N44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
       <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" t="s">
         <v>204</v>
       </c>
-      <c r="C45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>205</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>206</v>
       </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" t="s">
         <v>207</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" t="s">
         <v>207</v>
       </c>
-      <c r="D46" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" t="s">
-        <v>210</v>
-      </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" t="s">
         <v>211</v>
       </c>
-      <c r="C48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>212</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>213</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>214</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>215</v>
       </c>
-      <c r="J48" t="s">
+      <c r="M48" t="s">
         <v>216</v>
       </c>
-      <c r="M48" t="s">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>217</v>
       </c>
-      <c r="N48" t="s">
+      <c r="C49" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>218</v>
       </c>
-      <c r="C49" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>219</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>220</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>221</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>222</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>223</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
+        <v>217</v>
+      </c>
+      <c r="M49" t="s">
         <v>224</v>
       </c>
-      <c r="L49" t="s">
-        <v>218</v>
-      </c>
-      <c r="M49" t="s">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>225</v>
       </c>
-      <c r="N49" t="s">
+      <c r="C50" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>226</v>
       </c>
-      <c r="C50" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>227</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>228</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>229</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>230</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>231</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>232</v>
       </c>
-      <c r="M50" t="s">
-        <v>232</v>
-      </c>
-      <c r="N50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>233</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>234</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>235</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>236</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>237</v>
       </c>
-      <c r="J51" t="s">
+      <c r="M51" t="s">
         <v>238</v>
       </c>
-      <c r="M51" t="s">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
         <v>239</v>
       </c>
-      <c r="N51" t="s">
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="E52" t="s">
         <v>241</v>
       </c>
-      <c r="C52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
         <v>243</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>244</v>
       </c>
-      <c r="I52" t="s">
+      <c r="M52" t="s">
         <v>245</v>
       </c>
-      <c r="J52" t="s">
-        <v>246</v>
-      </c>
-      <c r="M52" t="s">
-        <v>247</v>
-      </c>
-      <c r="N52" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
       <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" t="s">
         <v>248</v>
       </c>
-      <c r="C53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>249</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
         <v>250</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>251</v>
       </c>
-      <c r="I53" t="s">
+      <c r="M53" t="s">
         <v>252</v>
       </c>
-      <c r="J53" t="s">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
         <v>253</v>
       </c>
-      <c r="M53" t="s">
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" t="s">
         <v>254</v>
       </c>
-      <c r="N53" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>255</v>
       </c>
-      <c r="C54" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>256</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>257</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
+        <v>222</v>
+      </c>
+      <c r="J54" t="s">
         <v>258</v>
       </c>
-      <c r="H54" t="s">
-        <v>259</v>
-      </c>
-      <c r="I54" t="s">
-        <v>223</v>
-      </c>
-      <c r="J54" t="s">
-        <v>260</v>
-      </c>
       <c r="L54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M54" t="s">
-        <v>255</v>
-      </c>
-      <c r="N54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2896,89 +2773,80 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="s">
         <v>261</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>262</v>
       </c>
-      <c r="E55" t="s">
+      <c r="I55" t="s">
+        <v>222</v>
+      </c>
+      <c r="J55" t="s">
         <v>263</v>
       </c>
-      <c r="G55" t="s">
+      <c r="M55" t="s">
         <v>264</v>
       </c>
-      <c r="I55" t="s">
-        <v>223</v>
-      </c>
-      <c r="J55" t="s">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
         <v>265</v>
       </c>
-      <c r="M55" t="s">
+      <c r="C56" t="s">
         <v>266</v>
       </c>
-      <c r="N55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>267</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>268</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>269</v>
       </c>
-      <c r="E56" t="s">
+      <c r="I56" t="s">
         <v>270</v>
       </c>
-      <c r="G56" t="s">
+      <c r="M56" t="s">
         <v>271</v>
       </c>
-      <c r="I56" t="s">
-        <v>272</v>
-      </c>
-      <c r="M56" t="s">
-        <v>273</v>
-      </c>
-      <c r="N56" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" t="s">
         <v>267</v>
       </c>
-      <c r="C57" t="s">
-        <v>268</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>272</v>
+      </c>
+      <c r="G57" t="s">
         <v>269</v>
       </c>
-      <c r="E57" t="s">
-        <v>274</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
+        <v>270</v>
+      </c>
+      <c r="J57" t="s">
+        <v>201</v>
+      </c>
+      <c r="M57" t="s">
         <v>271</v>
-      </c>
-      <c r="I57" t="s">
-        <v>272</v>
-      </c>
-      <c r="J57" t="s">
-        <v>202</v>
-      </c>
-      <c r="M57" t="s">
-        <v>273</v>
-      </c>
-      <c r="N57" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
